--- a/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0009_8_manual_offline 11.xlsx
+++ b/RNN_Stopping_Grid/Data2/Optimised_Networks/Predictions/1HL Manual/1_15_30_0.0009_8_manual_offline 11.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mostafizor\Documents\Bioprocess Simulation using Machine Learning\RNN_Stopping_Grid\Data2\Optimised_Networks\Predictions\1HL Manual\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3ECCDA2C-FFA0-4867-9FE5-59F183C8403F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A5003A9-BDDE-423E-B3B0-E2B7A145B56F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
